--- a/Test Data/HCM Employee Self Service/HCM_ManageContactInfo_Add_Address_0074.xlsx
+++ b/Test Data/HCM Employee Self Service/HCM_ManageContactInfo_Add_Address_0074.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OracleATS\OFT\Maaden\Test Data\HCM Employee Self Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4067A-A80F-4560-9410-B1BA4EC9CF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4695454B-BA12-4A88-B473-6B98E7A9C311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>URL</t>
   </si>
@@ -51,16 +51,55 @@
     <t>Welcome123</t>
   </si>
   <si>
-    <t>Email_Address</t>
-  </si>
-  <si>
-    <t>Email_Comments</t>
-  </si>
-  <si>
-    <t>s1@gmail.com</t>
-  </si>
-  <si>
-    <t>Eamil Addded</t>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>9/7/20</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>PO_Box</t>
+  </si>
+  <si>
+    <t>Streets</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Free Text</t>
   </si>
 </sst>
 </file>
@@ -413,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D142F1-4874-46D3-8D48-2B0434CD3DEA}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +468,7 @@
     <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,10 +482,31 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -457,21 +517,35 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>123456</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5CDB7BE7-2508-4972-B567-7C512B31E667}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>